--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1020,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1067,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1251,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1298,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1344,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1429,10 +1453,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1476,28 +1500,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1522,28 +1546,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1631,10 +1655,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1678,28 +1702,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1724,28 +1748,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1833,10 +1857,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1880,28 +1904,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1926,28 +1950,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2035,10 +2059,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2082,28 +2106,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2128,28 +2152,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2266,10 +2290,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2313,28 +2337,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2359,28 +2383,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2497,10 +2521,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2544,28 +2568,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2590,28 +2614,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2699,10 +2723,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2746,28 +2770,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2792,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2901,10 +2925,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2948,28 +2972,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2994,28 +3018,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3103,10 +3127,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3150,28 +3174,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3196,28 +3220,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3305,10 +3329,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3352,28 +3376,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3398,28 +3422,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3507,10 +3531,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3554,28 +3578,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3600,28 +3624,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3738,10 +3762,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3785,28 +3809,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3831,28 +3855,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4051,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4074,28 +4098,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4144,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4229,10 +4253,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4276,28 +4300,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4322,28 +4346,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4431,10 +4455,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4478,28 +4502,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4524,28 +4548,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4633,10 +4657,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4680,28 +4704,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4726,28 +4750,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4835,10 +4859,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4882,28 +4906,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4928,28 +4952,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5061,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5084,28 +5108,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5154,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5529,10 +5553,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5576,28 +5600,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5622,28 +5646,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5876,10 +5900,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5923,28 +5947,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5969,28 +5993,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6107,10 +6131,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6154,28 +6178,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6200,28 +6224,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6512,10 +6536,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6559,28 +6583,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6605,28 +6629,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6714,10 +6738,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6761,28 +6785,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6807,28 +6831,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7119,10 +7143,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7166,28 +7190,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7212,28 +7236,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7321,10 +7345,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7368,28 +7392,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7414,28 +7438,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7523,10 +7547,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
